--- a/public/templates/代用确认单.xlsx
+++ b/public/templates/代用确认单.xlsx
@@ -442,31 +442,31 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>营销总监签名：</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>财务批准:</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">                  </t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   </t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>公司电话/传真</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>代用确认单</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -476,7 +476,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,24 +547,6 @@
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1124,18 +1106,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1181,18 +1162,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1205,10 +1174,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1217,7 +1183,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1226,15 +1192,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1244,31 +1201,133 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1280,10 +1339,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1316,16 +1375,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1335,126 +1394,87 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1478,99 +1498,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="3"/>
     <cellStyle name="常规 4" xfId="2"/>
-    <cellStyle name="常规_ABK2011年报价" xfId="4"/>
     <cellStyle name="样式 1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1841,10 +1776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:I1"/>
+      <selection activeCell="A24" sqref="A24:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1863,339 +1798,339 @@
     <col min="12" max="12" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="20" customFormat="1" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:12" s="16" customFormat="1" ht="35.25" customHeight="1" thickBot="1">
+      <c r="A1" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="43" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="27"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="22"/>
     </row>
     <row r="2" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="59"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="58" t="s">
+      <c r="F2" s="85"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="60"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="40"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="66"/>
     </row>
     <row r="3" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="78" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="48" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="49"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="51"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="77"/>
     </row>
     <row r="4" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="52"/>
+      <c r="A4" s="78"/>
       <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="63"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="89"/>
     </row>
     <row r="5" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A5" s="52"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="65" t="s">
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="67"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="57"/>
     </row>
     <row r="6" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="53"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="69" t="s">
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="69"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="70"/>
-    </row>
-    <row r="7" spans="1:12" s="21" customFormat="1" ht="6.95" customHeight="1">
-      <c r="A7" s="71"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="59"/>
+    </row>
+    <row r="7" spans="1:12" s="17" customFormat="1" ht="6.95" customHeight="1">
+      <c r="A7" s="63"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="44" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="81" t="s">
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="81"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="82"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="61"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A9" s="74"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="76" t="s">
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="67"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="57"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A10" s="74"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="76" t="s">
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="76"/>
-      <c r="I10" s="77" t="s">
+      <c r="H10" s="53"/>
+      <c r="I10" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="79"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="56"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="74"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="76" t="s">
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="76"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="67"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="57"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A12" s="74"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="67"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="57"/>
     </row>
     <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A13" s="75"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="70"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="59"/>
     </row>
     <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="44" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="93" t="s">
+      <c r="C14" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="94"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="48"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A15" s="74"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="83" t="s">
+      <c r="C15" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="83"/>
-      <c r="L15" s="84"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="37"/>
     </row>
     <row r="16" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A16" s="74"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="84"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="37"/>
     </row>
     <row r="17" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A17" s="74"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="84"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="37"/>
     </row>
     <row r="18" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A18" s="74"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="84"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="37"/>
     </row>
     <row r="19" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A19" s="75"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="97"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="50"/>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="2" t="s">
@@ -2213,280 +2148,94 @@
       <c r="E20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="81" t="s">
+      <c r="F20" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="81"/>
+      <c r="G20" s="51"/>
       <c r="H20" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="24" t="s">
+      <c r="J20" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="K20" s="19" t="s">
+      <c r="K20" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="L20" s="25" t="s">
+      <c r="L20" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="17.100000000000001" customHeight="1">
+    <row r="21" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A21" s="5">
         <v>1</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="38"/>
-    </row>
-    <row r="22" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A22" s="5">
-        <v>2</v>
-      </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="38"/>
-    </row>
-    <row r="23" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A23" s="5">
-        <v>3</v>
-      </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="38"/>
-    </row>
-    <row r="24" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A24" s="5">
-        <v>4</v>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="28"/>
+    </row>
+    <row r="22" spans="1:12" ht="69" customHeight="1" thickBot="1">
+      <c r="A22" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="38"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="40"/>
+    </row>
+    <row r="23" spans="1:12" ht="46.5" customHeight="1" thickBot="1">
+      <c r="A23" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="43"/>
+    </row>
+    <row r="24" spans="1:12" ht="47.25" customHeight="1" thickBot="1">
+      <c r="A24" s="29" t="s">
+        <v>56</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="38"/>
-    </row>
-    <row r="25" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A25" s="5">
-        <v>5</v>
-      </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="38"/>
-    </row>
-    <row r="26" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A26" s="5">
-        <v>6</v>
-      </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="38"/>
-    </row>
-    <row r="27" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A27" s="5">
-        <v>7</v>
-      </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="38"/>
-    </row>
-    <row r="28" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A28" s="5">
-        <v>8</v>
-      </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="38"/>
-    </row>
-    <row r="29" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A29" s="5">
-        <v>9</v>
-      </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="38"/>
-    </row>
-    <row r="30" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A30" s="23">
-        <v>10</v>
-      </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="38"/>
-    </row>
-    <row r="31" spans="1:12" ht="69" customHeight="1" thickBot="1">
-      <c r="A31" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="86"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="87"/>
-      <c r="J31" s="87"/>
-      <c r="K31" s="87"/>
-      <c r="L31" s="88"/>
-    </row>
-    <row r="32" spans="1:12" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A32" s="89" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="90"/>
-      <c r="J32" s="90"/>
-      <c r="K32" s="90"/>
-      <c r="L32" s="91"/>
-    </row>
-    <row r="33" spans="1:12" ht="47.25" customHeight="1" thickBot="1">
-      <c r="A33" s="99" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="100"/>
-      <c r="C33" s="100"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="102" t="s">
+      <c r="F24" s="31"/>
+      <c r="G24" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="H33" s="103"/>
-      <c r="I33" s="103"/>
-      <c r="J33" s="103"/>
-      <c r="K33" s="103"/>
-      <c r="L33" s="104"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:L33"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="C15:L15"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B31:L31"/>
-    <mergeCell ref="A32:L32"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="C14:L14"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="C17:L17"/>
-    <mergeCell ref="C18:L18"/>
-    <mergeCell ref="C19:L19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="A7:L7"/>
+  <mergeCells count="49">
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:I1"/>
@@ -2503,8 +2252,41 @@
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="C15:L15"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="B22:L22"/>
+    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="C17:L17"/>
+    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="C19:L19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:L24"/>
   </mergeCells>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.27500000000000002" right="0.15625" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2532,305 +2314,305 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
       <c r="M1" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="142"/>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
       <c r="M2" s="11"/>
     </row>
     <row r="3" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="108" t="s">
+      <c r="B3" s="121"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="110"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="108" t="s">
+      <c r="F3" s="123"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="108"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="112"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="125"/>
     </row>
     <row r="4" spans="1:14" ht="15.95" customHeight="1">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113"/>
-      <c r="K4" s="113"/>
-      <c r="L4" s="113"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="126"/>
     </row>
     <row r="5" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="81" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="81"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="82"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="61"/>
     </row>
     <row r="6" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="117" t="s">
+      <c r="B6" s="53"/>
+      <c r="C6" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="117"/>
-      <c r="M6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="118"/>
+      <c r="L6" s="118"/>
+      <c r="M6" s="119"/>
     </row>
     <row r="7" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="76" t="s">
+      <c r="B7" s="53"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="67"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="57"/>
       <c r="N7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A8" s="119" t="s">
+      <c r="A8" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="69" t="s">
+      <c r="B8" s="62"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="69"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="70"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="59"/>
     </row>
     <row r="9" spans="1:14" ht="15.95" customHeight="1">
-      <c r="A9" s="120" t="s">
+      <c r="A9" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="120"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="109"/>
     </row>
     <row r="10" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="81" t="s">
+      <c r="B10" s="51"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="81"/>
-      <c r="I10" s="121" t="s">
+      <c r="H10" s="51"/>
+      <c r="I10" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="122"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="115"/>
+      <c r="M10" s="116"/>
     </row>
     <row r="11" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="116" t="s">
+      <c r="A11" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="76" t="s">
+      <c r="B11" s="53"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="123"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="117"/>
     </row>
     <row r="12" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A12" s="116" t="s">
+      <c r="A12" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="76" t="s">
+      <c r="B12" s="53"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="76"/>
-      <c r="I12" s="124" t="s">
+      <c r="H12" s="53"/>
+      <c r="I12" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="124"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="124"/>
-      <c r="M12" s="125"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="112"/>
+      <c r="L12" s="112"/>
+      <c r="M12" s="113"/>
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A13" s="116" t="s">
+      <c r="A13" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="76" t="s">
+      <c r="B13" s="53"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="76"/>
-      <c r="I13" s="124" t="s">
+      <c r="H13" s="53"/>
+      <c r="I13" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="124"/>
-      <c r="K13" s="124"/>
-      <c r="L13" s="124"/>
-      <c r="M13" s="125"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="113"/>
     </row>
     <row r="14" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A14" s="116" t="s">
+      <c r="A14" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="67"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="57"/>
       <c r="N14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A15" s="119" t="s">
+      <c r="A15" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="70"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="59"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1">
-      <c r="A16" s="120" t="s">
+      <c r="A16" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="120"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="120"/>
-      <c r="L16" s="120"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="2" t="s">
@@ -2839,17 +2621,17 @@
       <c r="B17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="81" t="s">
+      <c r="C17" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="81"/>
+      <c r="D17" s="51"/>
       <c r="E17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="81" t="s">
+      <c r="F17" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="81"/>
+      <c r="G17" s="51"/>
       <c r="H17" s="4" t="s">
         <v>28</v>
       </c>
@@ -2860,384 +2642,384 @@
       <c r="K17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L17" s="81" t="s">
+      <c r="L17" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="M17" s="126"/>
+      <c r="M17" s="110"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="5">
         <v>1</v>
       </c>
       <c r="B18" s="6"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
-      <c r="L18" s="127"/>
-      <c r="M18" s="128"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="93"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="5">
         <v>2</v>
       </c>
       <c r="B19" s="6"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="127"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="127"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="127"/>
-      <c r="M19" s="128"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="93"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="5">
         <v>3</v>
       </c>
       <c r="B20" s="6"/>
-      <c r="C20" s="127"/>
-      <c r="D20" s="127"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="127"/>
-      <c r="G20" s="127"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="127"/>
-      <c r="M20" s="128"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="93"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="5">
         <v>4</v>
       </c>
       <c r="B21" s="6"/>
-      <c r="C21" s="127"/>
-      <c r="D21" s="127"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="127"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="127"/>
-      <c r="M21" s="128"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="5">
         <v>5</v>
       </c>
       <c r="B22" s="6"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="127"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="127"/>
-      <c r="M22" s="128"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="93"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="5">
         <v>6</v>
       </c>
       <c r="B23" s="6"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="127"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="127"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="127"/>
-      <c r="M23" s="128"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="93"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="5">
         <v>7</v>
       </c>
       <c r="B24" s="6"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="127"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="127"/>
-      <c r="G24" s="127"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
-      <c r="L24" s="127"/>
-      <c r="M24" s="128"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="93"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="5">
         <v>8</v>
       </c>
       <c r="B25" s="6"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="127"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="127"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="127"/>
-      <c r="M25" s="128"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="93"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="5">
         <v>9</v>
       </c>
       <c r="B26" s="6"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="127"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
-      <c r="L26" s="127"/>
-      <c r="M26" s="128"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="93"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="5">
         <v>10</v>
       </c>
       <c r="B27" s="6"/>
-      <c r="C27" s="127"/>
-      <c r="D27" s="127"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="127"/>
-      <c r="G27" s="127"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="127"/>
-      <c r="M27" s="128"/>
+      <c r="L27" s="92"/>
+      <c r="M27" s="93"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="5">
         <v>11</v>
       </c>
       <c r="B28" s="6"/>
-      <c r="C28" s="127"/>
-      <c r="D28" s="127"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="127"/>
-      <c r="G28" s="127"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
-      <c r="L28" s="127"/>
-      <c r="M28" s="128"/>
+      <c r="L28" s="92"/>
+      <c r="M28" s="93"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="5">
         <v>12</v>
       </c>
       <c r="B29" s="6"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="127"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="127"/>
-      <c r="G29" s="127"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="127"/>
-      <c r="M29" s="128"/>
+      <c r="L29" s="92"/>
+      <c r="M29" s="93"/>
     </row>
     <row r="30" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="5">
         <v>13</v>
       </c>
       <c r="B30" s="6"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="127"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="127"/>
-      <c r="G30" s="127"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
-      <c r="L30" s="127"/>
-      <c r="M30" s="128"/>
+      <c r="L30" s="92"/>
+      <c r="M30" s="93"/>
     </row>
     <row r="31" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="5">
         <v>14</v>
       </c>
       <c r="B31" s="6"/>
-      <c r="C31" s="127"/>
-      <c r="D31" s="127"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="127"/>
-      <c r="G31" s="127"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="127"/>
-      <c r="M31" s="128"/>
+      <c r="L31" s="92"/>
+      <c r="M31" s="93"/>
     </row>
     <row r="32" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="5">
         <v>15</v>
       </c>
       <c r="B32" s="6"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="127"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="127"/>
-      <c r="G32" s="127"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
-      <c r="L32" s="127"/>
-      <c r="M32" s="128"/>
+      <c r="L32" s="92"/>
+      <c r="M32" s="93"/>
     </row>
     <row r="33" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="5">
         <v>16</v>
       </c>
       <c r="B33" s="6"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="127"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="127"/>
-      <c r="G33" s="127"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
-      <c r="L33" s="127"/>
-      <c r="M33" s="128"/>
+      <c r="L33" s="92"/>
+      <c r="M33" s="93"/>
     </row>
     <row r="34" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A34" s="5">
         <v>17</v>
       </c>
       <c r="B34" s="6"/>
-      <c r="C34" s="127"/>
-      <c r="D34" s="127"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="127"/>
-      <c r="G34" s="127"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="92"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
-      <c r="L34" s="127"/>
-      <c r="M34" s="128"/>
+      <c r="L34" s="92"/>
+      <c r="M34" s="93"/>
     </row>
     <row r="35" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="5">
         <v>18</v>
       </c>
       <c r="B35" s="6"/>
-      <c r="C35" s="127"/>
-      <c r="D35" s="127"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="127"/>
-      <c r="G35" s="127"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
-      <c r="L35" s="127"/>
-      <c r="M35" s="128"/>
+      <c r="L35" s="92"/>
+      <c r="M35" s="93"/>
     </row>
     <row r="36" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="5">
         <v>19</v>
       </c>
       <c r="B36" s="6"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="127"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="127"/>
-      <c r="G36" s="127"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="92"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
-      <c r="L36" s="127"/>
-      <c r="M36" s="128"/>
+      <c r="L36" s="92"/>
+      <c r="M36" s="93"/>
     </row>
     <row r="37" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="5">
         <v>20</v>
       </c>
       <c r="B37" s="6"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="127"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="127"/>
-      <c r="G37" s="127"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="92"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
-      <c r="L37" s="127"/>
-      <c r="M37" s="128"/>
+      <c r="L37" s="92"/>
+      <c r="M37" s="93"/>
     </row>
     <row r="38" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A38" s="129" t="s">
+      <c r="A38" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="130"/>
-      <c r="C38" s="130"/>
-      <c r="D38" s="131"/>
-      <c r="E38" s="132"/>
-      <c r="F38" s="133"/>
-      <c r="G38" s="133"/>
-      <c r="H38" s="133"/>
-      <c r="I38" s="133"/>
-      <c r="J38" s="133"/>
-      <c r="K38" s="133"/>
-      <c r="L38" s="133"/>
-      <c r="M38" s="134"/>
+      <c r="B38" s="95"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="97"/>
+      <c r="F38" s="98"/>
+      <c r="G38" s="98"/>
+      <c r="H38" s="98"/>
+      <c r="I38" s="98"/>
+      <c r="J38" s="98"/>
+      <c r="K38" s="98"/>
+      <c r="L38" s="98"/>
+      <c r="M38" s="99"/>
     </row>
     <row r="39" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A39" s="135" t="s">
+      <c r="A39" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="136"/>
-      <c r="C39" s="136"/>
-      <c r="D39" s="136"/>
-      <c r="E39" s="136"/>
-      <c r="F39" s="136"/>
-      <c r="G39" s="136"/>
-      <c r="H39" s="136"/>
-      <c r="I39" s="136"/>
-      <c r="J39" s="136"/>
-      <c r="K39" s="136"/>
-      <c r="L39" s="136"/>
-      <c r="M39" s="137"/>
+      <c r="B39" s="101"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="101"/>
+      <c r="F39" s="101"/>
+      <c r="G39" s="101"/>
+      <c r="H39" s="101"/>
+      <c r="I39" s="101"/>
+      <c r="J39" s="101"/>
+      <c r="K39" s="101"/>
+      <c r="L39" s="101"/>
+      <c r="M39" s="102"/>
     </row>
     <row r="40" spans="1:13" ht="13.5" customHeight="1">
       <c r="A40" s="7"/>
@@ -3270,20 +3052,20 @@
       <c r="M41" s="7"/>
     </row>
     <row r="42" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A42" s="138" t="s">
+      <c r="A42" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="139"/>
-      <c r="C42" s="139"/>
-      <c r="D42" s="139"/>
-      <c r="E42" s="139"/>
-      <c r="F42" s="139"/>
-      <c r="G42" s="139"/>
-      <c r="H42" s="139"/>
-      <c r="I42" s="139"/>
-      <c r="J42" s="139"/>
-      <c r="K42" s="139"/>
-      <c r="L42" s="139"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="104"/>
+      <c r="J42" s="104"/>
+      <c r="K42" s="104"/>
+      <c r="L42" s="104"/>
     </row>
     <row r="43" spans="1:13" ht="13.5" customHeight="1">
       <c r="A43" s="8"/>
@@ -3314,23 +3096,111 @@
       <c r="L44" s="9"/>
     </row>
     <row r="45" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A45" s="140" t="s">
+      <c r="A45" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="141"/>
-      <c r="C45" s="141"/>
-      <c r="D45" s="141"/>
-      <c r="E45" s="141"/>
-      <c r="F45" s="141"/>
-      <c r="G45" s="141"/>
-      <c r="H45" s="141"/>
-      <c r="I45" s="141"/>
-      <c r="J45" s="141"/>
-      <c r="K45" s="141"/>
-      <c r="L45" s="141"/>
+      <c r="B45" s="106"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="106"/>
+      <c r="E45" s="106"/>
+      <c r="F45" s="106"/>
+      <c r="G45" s="106"/>
+      <c r="H45" s="106"/>
+      <c r="I45" s="106"/>
+      <c r="J45" s="106"/>
+      <c r="K45" s="106"/>
+      <c r="L45" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="112">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:M14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:M15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="L30:M30"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="L37:M37"/>
@@ -3355,96 +3225,8 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="L32:M32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:M15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:M14"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:M6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:M5"/>
   </mergeCells>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.75138888888888899" right="0.75138888888888899" top="0.59027777777777801" bottom="0.59027777777777801" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
